--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/FPF/5.70/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/FPF/5.70/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/da caricare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/daniele_romanazzi_cgm_com/Documents/Documenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1F24850C-8DFB-4B05-9D3A-C0BE7F771772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBEDAEC5-54AA-40FE-892C-E96221012F7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07F68B6-C5A3-4597-8A7B-5DFE7846B1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="479">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1782,6 +1782,69 @@
   </si>
   <si>
     <t>subject_application_version: 5.70</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di generare un JWT senza campi obbligatori e nel caso in cui dovesse accadere l'invio validazione non avverrebbe quindi questo test non è simulabile</t>
+  </si>
+  <si>
+    <t>Le informazioni che compongono il jwt sono recuperate automaticamente e in caso di informazioni errate non avviene l'invio per la validazione</t>
+  </si>
+  <si>
+    <t>Timeout scaduto. È trascorso il periodo di timeout prima del completamento dell'operazione</t>
+  </si>
+  <si>
+    <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+  </si>
+  <si>
+    <t>Non eseguito</t>
+  </si>
+  <si>
+    <t>Lo scenario non è applicabile in quanto il nostro SW invia di default il valore N come da specifiche e non è data possibilità all'utente di poter manipolare quel valore</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
+  </si>
+  <si>
+    <t>Il nostro SW non permette l'assenza del nome o del cognome di un paziente. Sono dati obbligatori quindi non si può incorrere in questo scenario</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette all'utente di poter inserire un sesso diverso da quelli standard. L'utente può scegliere fra le opzioni disponibili quindi non si può incorrere nello scenario descritto</t>
+  </si>
+  <si>
+    <t>Non applicabile in quanto essendo opzionale non gestiamo queste informazioni</t>
+  </si>
+  <si>
+    <t>Lo scenario non è replicabile in quanto il nostro sw invia sempre quell'informazione anche in assenza di problemi essendo un dato obbligatorio</t>
+  </si>
+  <si>
+    <t>Il nostro sw anche in assenza di dati relativi allo stato funzionale del paziente invia cmq la sezione con l'indicazione di nessuna informazione rilevata quindi non è possibile incorrere in questo scenario</t>
+  </si>
+  <si>
+    <t>Essendo un dato obbligatorio viene sempre inserito all'interno del CDA e non è possibile replicare lo scenario KO richiesto. L'utente non può mai incorrere in questo problema</t>
+  </si>
+  <si>
+    <t>Non è possibile replicare lo scenario richiesto in quanto essendo informazioni obbligatorie se il medico inserisce delle visite o dei ricoveri i campi venogno tutti opportunamente compilati</t>
+  </si>
+  <si>
+    <t>Non è possibile simulare tale scenario in quanto il nostro applicativo non prevede il salvataggio di una terapia o prescrizione senza la data di riferimento</t>
+  </si>
+  <si>
+    <t>La sezione Anamnesi_Familiare/entry è OPZIONALE e non la gestiamo quindi non si può mai incorrere in questo scenario</t>
+  </si>
+  <si>
+    <t>Non è possibile replicare lo scenario in quanto nel nostro SW il campo effectivetime è sempre presente essendo obbligatorio e viene gestito come da specifiche</t>
+  </si>
+  <si>
+    <t>Se inserita allergia nel nostro Sw deve essere sempre valorizzato l'agente e di conseguenza non è mai assente la specifica inerente l'agente essendo un dato obbligatorio da specifiche</t>
+  </si>
+  <si>
+    <t>Il nostro sw consente all'utente di selezionare capacità motoria o regime di assistenza da menù a tendina con le sole opzioni indicate nelle specifiche quindi non è possibile replicare questo scenario di KO</t>
+  </si>
+  <si>
+    <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2311,12 +2374,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2450,6 +2526,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2469,9 +2551,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -2768,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,10 +4002,10 @@
   <dimension ref="A1:W775"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D5"/>
+      <selection pane="bottomRight" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3968,12 +4047,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3994,14 +4073,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4022,12 +4101,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4049,12 +4128,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4075,8 +4154,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4231,7 +4310,9 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="29"/>
+      <c r="J10" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -4245,7 +4326,7 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="W10" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4268,7 +4349,9 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -4305,7 +4388,9 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -4342,9 +4427,15 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="J13" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>458</v>
+      </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -4379,7 +4470,9 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -4416,7 +4509,9 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
@@ -4453,7 +4548,9 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -4490,7 +4587,9 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -4527,7 +4626,9 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -4564,7 +4665,9 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -4601,7 +4704,9 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -4638,9 +4743,15 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="J21" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>459</v>
+      </c>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -4675,7 +4786,9 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -4712,7 +4825,9 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
@@ -4749,7 +4864,9 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -4786,7 +4903,9 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="29"/>
+      <c r="J25" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -4823,7 +4942,9 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="29"/>
+      <c r="J26" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
@@ -4860,7 +4981,9 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="29"/>
+      <c r="J27" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -4871,9 +4994,7 @@
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
-      <c r="U27" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U27" s="34"/>
       <c r="V27" s="35"/>
       <c r="W27" s="29" t="s">
         <v>46</v>
@@ -4899,7 +5020,9 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="29"/>
+      <c r="J28" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -4910,9 +5033,7 @@
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
-      <c r="U28" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U28" s="34"/>
       <c r="V28" s="35"/>
       <c r="W28" s="29" t="s">
         <v>46</v>
@@ -4938,16 +5059,26 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="29"/>
+      <c r="J29" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>460</v>
+      </c>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="S29" s="29" t="s">
+        <v>461</v>
+      </c>
       <c r="T29" s="29"/>
       <c r="U29" s="34" t="s">
         <v>66</v>
@@ -4977,7 +5108,9 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="29"/>
+      <c r="J30" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
@@ -4988,9 +5121,7 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
-      <c r="U30" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U30" s="34"/>
       <c r="V30" s="35"/>
       <c r="W30" s="29" t="s">
         <v>46</v>
@@ -5016,7 +5147,9 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="29"/>
+      <c r="J31" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -5027,9 +5160,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
-      <c r="U31" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U31" s="34"/>
       <c r="V31" s="35"/>
       <c r="W31" s="29" t="s">
         <v>46</v>
@@ -5055,7 +5186,9 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
@@ -5066,9 +5199,7 @@
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
-      <c r="U32" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U32" s="34"/>
       <c r="V32" s="35"/>
       <c r="W32" s="29" t="s">
         <v>46</v>
@@ -5094,7 +5225,9 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="29"/>
+      <c r="J33" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
@@ -5105,9 +5238,7 @@
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
-      <c r="U33" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U33" s="34"/>
       <c r="V33" s="35"/>
       <c r="W33" s="29" t="s">
         <v>46</v>
@@ -5133,7 +5264,9 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="29"/>
+      <c r="J34" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
@@ -5144,9 +5277,7 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
-      <c r="U34" s="34" t="s">
-        <v>66</v>
-      </c>
+      <c r="U34" s="34"/>
       <c r="V34" s="35"/>
       <c r="W34" s="29" t="s">
         <v>46</v>
@@ -5172,7 +5303,9 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="29"/>
+      <c r="J35" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -5209,7 +5342,9 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="29"/>
+      <c r="J36" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
@@ -5246,7 +5381,9 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="29"/>
+      <c r="J37" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -5283,7 +5420,9 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -5320,7 +5459,9 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="29"/>
+      <c r="J39" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
@@ -5357,7 +5498,9 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="29"/>
+      <c r="J40" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
@@ -5394,7 +5537,9 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="29"/>
+      <c r="J41" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -5431,7 +5576,9 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="29"/>
+      <c r="J42" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -5468,7 +5615,9 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="29"/>
+      <c r="J43" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
@@ -5505,7 +5654,9 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="29"/>
+      <c r="J44" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -5542,7 +5693,9 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="29"/>
+      <c r="J45" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
@@ -5579,7 +5732,9 @@
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="29"/>
+      <c r="J46" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -5616,7 +5771,9 @@
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="29"/>
+      <c r="J47" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -5653,7 +5810,9 @@
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="29"/>
+      <c r="J48" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -5690,7 +5849,9 @@
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="29"/>
+      <c r="J49" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -5727,7 +5888,9 @@
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="29"/>
+      <c r="J50" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -5764,7 +5927,9 @@
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="29"/>
+      <c r="J51" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -5801,7 +5966,9 @@
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="29"/>
+      <c r="J52" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
@@ -5838,7 +6005,9 @@
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="29"/>
+      <c r="J53" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
@@ -5875,7 +6044,9 @@
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="29"/>
+      <c r="J54" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
@@ -5912,7 +6083,9 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="29"/>
+      <c r="J55" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
@@ -5949,7 +6122,9 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="29"/>
+      <c r="J56" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
@@ -5986,7 +6161,9 @@
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="29"/>
+      <c r="J57" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -6023,7 +6200,9 @@
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="29"/>
+      <c r="J58" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -6060,7 +6239,9 @@
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="29"/>
+      <c r="J59" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -6097,7 +6278,9 @@
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="29"/>
+      <c r="J60" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -6134,7 +6317,9 @@
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="29"/>
+      <c r="J61" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
@@ -6171,7 +6356,9 @@
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="29"/>
+      <c r="J62" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
@@ -6208,7 +6395,9 @@
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
@@ -6245,7 +6434,9 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="29"/>
+      <c r="J64" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
@@ -6282,7 +6473,9 @@
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="29"/>
+      <c r="J65" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
@@ -6319,7 +6512,9 @@
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="29"/>
+      <c r="J66" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
@@ -6356,7 +6551,9 @@
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="29"/>
+      <c r="J67" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -6393,7 +6590,9 @@
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="29"/>
+      <c r="J68" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
@@ -6430,7 +6629,9 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="29"/>
+      <c r="J69" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
@@ -6467,7 +6668,9 @@
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="29"/>
+      <c r="J70" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -6504,7 +6707,9 @@
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="29"/>
+      <c r="J71" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
@@ -6541,7 +6746,9 @@
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="29"/>
+      <c r="J72" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
@@ -6578,7 +6785,9 @@
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="29"/>
+      <c r="J73" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
@@ -6615,7 +6824,9 @@
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="29"/>
+      <c r="J74" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
@@ -6652,7 +6863,9 @@
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="29"/>
+      <c r="J75" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
@@ -6689,7 +6902,9 @@
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="29"/>
+      <c r="J76" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -6726,7 +6941,9 @@
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="29"/>
+      <c r="J77" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
@@ -6763,7 +6980,9 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="29"/>
+      <c r="J78" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
       <c r="M78" s="29"/>
@@ -6800,7 +7019,9 @@
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="29"/>
+      <c r="J79" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
@@ -6837,7 +7058,9 @@
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="29"/>
+      <c r="J80" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
       <c r="M80" s="29"/>
@@ -6874,7 +7097,9 @@
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="29"/>
+      <c r="J81" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
@@ -6911,7 +7136,9 @@
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="29"/>
+      <c r="J82" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
       <c r="M82" s="29"/>
@@ -6948,7 +7175,9 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="29"/>
+      <c r="J83" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
@@ -6985,7 +7214,9 @@
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="29"/>
+      <c r="J84" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
@@ -7022,7 +7253,9 @@
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="29"/>
+      <c r="J85" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
@@ -7059,7 +7292,9 @@
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="29"/>
+      <c r="J86" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
       <c r="M86" s="29"/>
@@ -7096,7 +7331,9 @@
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="29"/>
+      <c r="J87" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -7133,7 +7370,9 @@
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="29"/>
+      <c r="J88" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K88" s="29"/>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
@@ -7170,7 +7409,9 @@
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="29"/>
+      <c r="J89" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
@@ -7207,7 +7448,9 @@
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="29"/>
+      <c r="J90" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K90" s="29"/>
       <c r="L90" s="29"/>
       <c r="M90" s="29"/>
@@ -7244,7 +7487,9 @@
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="29"/>
+      <c r="J91" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K91" s="29"/>
       <c r="L91" s="29"/>
       <c r="M91" s="29"/>
@@ -7281,7 +7526,9 @@
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="29"/>
+      <c r="J92" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K92" s="29"/>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
@@ -7318,7 +7565,9 @@
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="29"/>
+      <c r="J93" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K93" s="29"/>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
@@ -7355,7 +7604,9 @@
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="29"/>
+      <c r="J94" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K94" s="29"/>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
@@ -7392,7 +7643,9 @@
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="40"/>
-      <c r="J95" s="29"/>
+      <c r="J95" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K95" s="29"/>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -7429,7 +7682,9 @@
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="40"/>
-      <c r="J96" s="29"/>
+      <c r="J96" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K96" s="29"/>
       <c r="L96" s="29"/>
       <c r="M96" s="29"/>
@@ -7466,7 +7721,9 @@
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="40"/>
-      <c r="J97" s="29"/>
+      <c r="J97" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K97" s="29"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
@@ -7503,7 +7760,9 @@
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="40"/>
-      <c r="J98" s="29"/>
+      <c r="J98" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K98" s="29"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
@@ -7540,7 +7799,9 @@
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="40"/>
-      <c r="J99" s="29"/>
+      <c r="J99" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K99" s="29"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
@@ -7577,7 +7838,9 @@
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="40"/>
-      <c r="J100" s="29"/>
+      <c r="J100" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K100" s="29"/>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
@@ -7614,7 +7877,9 @@
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="40"/>
-      <c r="J101" s="29"/>
+      <c r="J101" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K101" s="29"/>
       <c r="L101" s="29"/>
       <c r="M101" s="29"/>
@@ -7651,7 +7916,9 @@
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="40"/>
-      <c r="J102" s="29"/>
+      <c r="J102" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -7688,7 +7955,9 @@
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="40"/>
-      <c r="J103" s="29"/>
+      <c r="J103" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -7725,7 +7994,9 @@
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="40"/>
-      <c r="J104" s="29"/>
+      <c r="J104" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K104" s="29"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29"/>
@@ -7762,7 +8033,9 @@
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="40"/>
-      <c r="J105" s="29"/>
+      <c r="J105" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
       <c r="M105" s="29"/>
@@ -7799,7 +8072,9 @@
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="40"/>
-      <c r="J106" s="29"/>
+      <c r="J106" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K106" s="29"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29"/>
@@ -7836,7 +8111,9 @@
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="29"/>
+      <c r="J107" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K107" s="29"/>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
@@ -7873,7 +8150,9 @@
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
       <c r="I108" s="40"/>
-      <c r="J108" s="29"/>
+      <c r="J108" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
       <c r="M108" s="29"/>
@@ -7910,7 +8189,9 @@
       <c r="G109" s="33"/>
       <c r="H109" s="33"/>
       <c r="I109" s="40"/>
-      <c r="J109" s="29"/>
+      <c r="J109" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -7947,7 +8228,9 @@
       <c r="G110" s="33"/>
       <c r="H110" s="33"/>
       <c r="I110" s="40"/>
-      <c r="J110" s="29"/>
+      <c r="J110" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K110" s="29"/>
       <c r="L110" s="29"/>
       <c r="M110" s="29"/>
@@ -7984,7 +8267,9 @@
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
       <c r="I111" s="40"/>
-      <c r="J111" s="29"/>
+      <c r="J111" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
       <c r="M111" s="29"/>
@@ -8021,7 +8306,9 @@
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
       <c r="I112" s="40"/>
-      <c r="J112" s="29"/>
+      <c r="J112" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
       <c r="M112" s="29"/>
@@ -8058,7 +8345,9 @@
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
       <c r="I113" s="40"/>
-      <c r="J113" s="29"/>
+      <c r="J113" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K113" s="29"/>
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
@@ -8095,7 +8384,9 @@
       <c r="G114" s="33"/>
       <c r="H114" s="33"/>
       <c r="I114" s="40"/>
-      <c r="J114" s="29"/>
+      <c r="J114" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K114" s="29"/>
       <c r="L114" s="29"/>
       <c r="M114" s="29"/>
@@ -8132,7 +8423,9 @@
       <c r="G115" s="33"/>
       <c r="H115" s="33"/>
       <c r="I115" s="40"/>
-      <c r="J115" s="29"/>
+      <c r="J115" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K115" s="29"/>
       <c r="L115" s="29"/>
       <c r="M115" s="29"/>
@@ -8169,7 +8462,9 @@
       <c r="G116" s="33"/>
       <c r="H116" s="33"/>
       <c r="I116" s="40"/>
-      <c r="J116" s="29"/>
+      <c r="J116" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K116" s="29"/>
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
@@ -8206,7 +8501,9 @@
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
       <c r="I117" s="40"/>
-      <c r="J117" s="29"/>
+      <c r="J117" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K117" s="29"/>
       <c r="L117" s="29"/>
       <c r="M117" s="29"/>
@@ -8243,7 +8540,9 @@
       <c r="G118" s="33"/>
       <c r="H118" s="33"/>
       <c r="I118" s="40"/>
-      <c r="J118" s="29"/>
+      <c r="J118" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K118" s="29"/>
       <c r="L118" s="29"/>
       <c r="M118" s="29"/>
@@ -8280,7 +8579,9 @@
       <c r="G119" s="33"/>
       <c r="H119" s="33"/>
       <c r="I119" s="40"/>
-      <c r="J119" s="29"/>
+      <c r="J119" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K119" s="29"/>
       <c r="L119" s="29"/>
       <c r="M119" s="29"/>
@@ -8317,7 +8618,9 @@
       <c r="G120" s="33"/>
       <c r="H120" s="33"/>
       <c r="I120" s="40"/>
-      <c r="J120" s="29"/>
+      <c r="J120" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K120" s="29"/>
       <c r="L120" s="29"/>
       <c r="M120" s="29"/>
@@ -8354,7 +8657,9 @@
       <c r="G121" s="33"/>
       <c r="H121" s="33"/>
       <c r="I121" s="40"/>
-      <c r="J121" s="29"/>
+      <c r="J121" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K121" s="29"/>
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
@@ -8391,7 +8696,9 @@
       <c r="G122" s="33"/>
       <c r="H122" s="33"/>
       <c r="I122" s="40"/>
-      <c r="J122" s="29"/>
+      <c r="J122" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K122" s="29"/>
       <c r="L122" s="29"/>
       <c r="M122" s="29"/>
@@ -8428,7 +8735,9 @@
       <c r="G123" s="33"/>
       <c r="H123" s="33"/>
       <c r="I123" s="40"/>
-      <c r="J123" s="29"/>
+      <c r="J123" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K123" s="29"/>
       <c r="L123" s="29"/>
       <c r="M123" s="29"/>
@@ -8465,7 +8774,9 @@
       <c r="G124" s="33"/>
       <c r="H124" s="33"/>
       <c r="I124" s="40"/>
-      <c r="J124" s="29"/>
+      <c r="J124" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K124" s="29"/>
       <c r="L124" s="29"/>
       <c r="M124" s="29"/>
@@ -8502,7 +8813,9 @@
       <c r="G125" s="33"/>
       <c r="H125" s="33"/>
       <c r="I125" s="40"/>
-      <c r="J125" s="29"/>
+      <c r="J125" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K125" s="29"/>
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
@@ -8539,7 +8852,9 @@
       <c r="G126" s="33"/>
       <c r="H126" s="33"/>
       <c r="I126" s="40"/>
-      <c r="J126" s="29"/>
+      <c r="J126" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K126" s="29"/>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
@@ -8576,7 +8891,9 @@
       <c r="G127" s="33"/>
       <c r="H127" s="33"/>
       <c r="I127" s="40"/>
-      <c r="J127" s="29"/>
+      <c r="J127" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
       <c r="M127" s="29"/>
@@ -8613,7 +8930,9 @@
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
       <c r="I128" s="40"/>
-      <c r="J128" s="29"/>
+      <c r="J128" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K128" s="29"/>
       <c r="L128" s="29"/>
       <c r="M128" s="29"/>
@@ -8650,7 +8969,9 @@
       <c r="G129" s="33"/>
       <c r="H129" s="33"/>
       <c r="I129" s="40"/>
-      <c r="J129" s="29"/>
+      <c r="J129" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K129" s="29"/>
       <c r="L129" s="29"/>
       <c r="M129" s="29"/>
@@ -8687,7 +9008,9 @@
       <c r="G130" s="33"/>
       <c r="H130" s="33"/>
       <c r="I130" s="40"/>
-      <c r="J130" s="29"/>
+      <c r="J130" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K130" s="29"/>
       <c r="L130" s="29"/>
       <c r="M130" s="29"/>
@@ -8724,7 +9047,9 @@
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
       <c r="I131" s="40"/>
-      <c r="J131" s="29"/>
+      <c r="J131" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K131" s="29"/>
       <c r="L131" s="29"/>
       <c r="M131" s="29"/>
@@ -8761,7 +9086,9 @@
       <c r="G132" s="33"/>
       <c r="H132" s="33"/>
       <c r="I132" s="40"/>
-      <c r="J132" s="29"/>
+      <c r="J132" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K132" s="29"/>
       <c r="L132" s="29"/>
       <c r="M132" s="29"/>
@@ -8798,7 +9125,9 @@
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
       <c r="I133" s="40"/>
-      <c r="J133" s="29"/>
+      <c r="J133" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K133" s="29"/>
       <c r="L133" s="29"/>
       <c r="M133" s="29"/>
@@ -8835,7 +9164,9 @@
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
       <c r="I134" s="40"/>
-      <c r="J134" s="29"/>
+      <c r="J134" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K134" s="29"/>
       <c r="L134" s="29"/>
       <c r="M134" s="29"/>
@@ -8872,7 +9203,9 @@
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
       <c r="I135" s="40"/>
-      <c r="J135" s="29"/>
+      <c r="J135" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K135" s="29"/>
       <c r="L135" s="29"/>
       <c r="M135" s="29"/>
@@ -8909,7 +9242,9 @@
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
       <c r="I136" s="40"/>
-      <c r="J136" s="29"/>
+      <c r="J136" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K136" s="29"/>
       <c r="L136" s="29"/>
       <c r="M136" s="29"/>
@@ -8946,7 +9281,9 @@
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
       <c r="I137" s="40"/>
-      <c r="J137" s="29"/>
+      <c r="J137" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K137" s="29"/>
       <c r="L137" s="29"/>
       <c r="M137" s="29"/>
@@ -8983,7 +9320,9 @@
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
       <c r="I138" s="40"/>
-      <c r="J138" s="29"/>
+      <c r="J138" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K138" s="29"/>
       <c r="L138" s="29"/>
       <c r="M138" s="29"/>
@@ -9020,7 +9359,9 @@
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
       <c r="I139" s="40"/>
-      <c r="J139" s="29"/>
+      <c r="J139" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K139" s="29"/>
       <c r="L139" s="29"/>
       <c r="M139" s="29"/>
@@ -9057,7 +9398,9 @@
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
       <c r="I140" s="40"/>
-      <c r="J140" s="29"/>
+      <c r="J140" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K140" s="29"/>
       <c r="L140" s="29"/>
       <c r="M140" s="29"/>
@@ -9094,7 +9437,9 @@
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
       <c r="I141" s="40"/>
-      <c r="J141" s="29"/>
+      <c r="J141" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K141" s="29"/>
       <c r="L141" s="29"/>
       <c r="M141" s="29"/>
@@ -9131,7 +9476,9 @@
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
       <c r="I142" s="40"/>
-      <c r="J142" s="29"/>
+      <c r="J142" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K142" s="29"/>
       <c r="L142" s="29"/>
       <c r="M142" s="29"/>
@@ -9168,7 +9515,9 @@
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
       <c r="I143" s="40"/>
-      <c r="J143" s="29"/>
+      <c r="J143" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K143" s="29"/>
       <c r="L143" s="29"/>
       <c r="M143" s="29"/>
@@ -9205,7 +9554,9 @@
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="40"/>
-      <c r="J144" s="29"/>
+      <c r="J144" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K144" s="29"/>
       <c r="L144" s="29"/>
       <c r="M144" s="29"/>
@@ -9242,7 +9593,9 @@
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
       <c r="I145" s="40"/>
-      <c r="J145" s="29"/>
+      <c r="J145" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K145" s="29"/>
       <c r="L145" s="29"/>
       <c r="M145" s="29"/>
@@ -9279,7 +9632,9 @@
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
       <c r="I146" s="40"/>
-      <c r="J146" s="29"/>
+      <c r="J146" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K146" s="29"/>
       <c r="L146" s="29"/>
       <c r="M146" s="29"/>
@@ -9316,7 +9671,9 @@
       <c r="G147" s="33"/>
       <c r="H147" s="33"/>
       <c r="I147" s="40"/>
-      <c r="J147" s="29"/>
+      <c r="J147" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K147" s="29"/>
       <c r="L147" s="29"/>
       <c r="M147" s="29"/>
@@ -9353,9 +9710,15 @@
       <c r="G148" s="33"/>
       <c r="H148" s="33"/>
       <c r="I148" s="40"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
+      <c r="J148" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K148" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L148" s="29" t="s">
+        <v>462</v>
+      </c>
       <c r="M148" s="29"/>
       <c r="N148" s="29"/>
       <c r="O148" s="29"/>
@@ -9390,9 +9753,15 @@
       <c r="G149" s="33"/>
       <c r="H149" s="33"/>
       <c r="I149" s="40"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
+      <c r="J149" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K149" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L149" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="M149" s="29"/>
       <c r="N149" s="29"/>
       <c r="O149" s="29"/>
@@ -9427,9 +9796,15 @@
       <c r="G150" s="33"/>
       <c r="H150" s="33"/>
       <c r="I150" s="40"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
+      <c r="J150" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K150" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L150" s="50" t="s">
+        <v>464</v>
+      </c>
       <c r="M150" s="29"/>
       <c r="N150" s="29"/>
       <c r="O150" s="29"/>
@@ -9464,9 +9839,15 @@
       <c r="G151" s="33"/>
       <c r="H151" s="33"/>
       <c r="I151" s="40"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
+      <c r="J151" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K151" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L151" s="50" t="s">
+        <v>465</v>
+      </c>
       <c r="M151" s="29"/>
       <c r="N151" s="29"/>
       <c r="O151" s="29"/>
@@ -9501,9 +9882,15 @@
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
       <c r="I152" s="40"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
+      <c r="J152" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K152" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L152" s="50" t="s">
+        <v>466</v>
+      </c>
       <c r="M152" s="29"/>
       <c r="N152" s="29"/>
       <c r="O152" s="29"/>
@@ -9538,9 +9925,15 @@
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="40"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
+      <c r="J153" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K153" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L153" s="50" t="s">
+        <v>467</v>
+      </c>
       <c r="M153" s="29"/>
       <c r="N153" s="29"/>
       <c r="O153" s="29"/>
@@ -9575,9 +9968,15 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="40"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
+      <c r="J154" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K154" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L154" s="50" t="s">
+        <v>468</v>
+      </c>
       <c r="M154" s="29"/>
       <c r="N154" s="29"/>
       <c r="O154" s="29"/>
@@ -9612,9 +10011,15 @@
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="40"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
+      <c r="J155" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K155" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L155" s="50" t="s">
+        <v>469</v>
+      </c>
       <c r="M155" s="29"/>
       <c r="N155" s="29"/>
       <c r="O155" s="29"/>
@@ -9649,9 +10054,15 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="40"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
+      <c r="J156" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K156" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L156" s="50" t="s">
+        <v>470</v>
+      </c>
       <c r="M156" s="29"/>
       <c r="N156" s="29"/>
       <c r="O156" s="29"/>
@@ -9686,9 +10097,15 @@
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="40"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
+      <c r="J157" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K157" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L157" s="50" t="s">
+        <v>471</v>
+      </c>
       <c r="M157" s="29"/>
       <c r="N157" s="29"/>
       <c r="O157" s="29"/>
@@ -9723,9 +10140,15 @@
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="40"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
+      <c r="J158" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K158" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L158" s="50" t="s">
+        <v>472</v>
+      </c>
       <c r="M158" s="29"/>
       <c r="N158" s="29"/>
       <c r="O158" s="29"/>
@@ -9760,9 +10183,15 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="40"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
+      <c r="J159" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K159" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L159" s="50" t="s">
+        <v>473</v>
+      </c>
       <c r="M159" s="29"/>
       <c r="N159" s="29"/>
       <c r="O159" s="29"/>
@@ -9797,9 +10226,15 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="40"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
+      <c r="J160" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K160" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L160" s="50" t="s">
+        <v>474</v>
+      </c>
       <c r="M160" s="29"/>
       <c r="N160" s="29"/>
       <c r="O160" s="29"/>
@@ -9834,9 +10269,15 @@
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="40"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
+      <c r="J161" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K161" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L161" s="50" t="s">
+        <v>475</v>
+      </c>
       <c r="M161" s="29"/>
       <c r="N161" s="29"/>
       <c r="O161" s="29"/>
@@ -9871,9 +10312,15 @@
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="40"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
+      <c r="J162" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K162" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L162" s="50" t="s">
+        <v>476</v>
+      </c>
       <c r="M162" s="29"/>
       <c r="N162" s="29"/>
       <c r="O162" s="29"/>
@@ -9908,9 +10355,15 @@
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="40"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
+      <c r="J163" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K163" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L163" s="50" t="s">
+        <v>477</v>
+      </c>
       <c r="M163" s="29"/>
       <c r="N163" s="29"/>
       <c r="O163" s="29"/>
@@ -9945,9 +10398,15 @@
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="40"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
+      <c r="J164" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K164" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L164" s="50" t="s">
+        <v>478</v>
+      </c>
       <c r="M164" s="29"/>
       <c r="N164" s="29"/>
       <c r="O164" s="29"/>
@@ -9982,7 +10441,9 @@
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="40"/>
-      <c r="J165" s="29"/>
+      <c r="J165" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
       <c r="M165" s="29"/>
@@ -9996,7 +10457,7 @@
       <c r="U165" s="34"/>
       <c r="V165" s="35"/>
       <c r="W165" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10019,7 +10480,9 @@
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="40"/>
-      <c r="J166" s="29"/>
+      <c r="J166" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K166" s="29"/>
       <c r="L166" s="29"/>
       <c r="M166" s="29"/>
@@ -10033,7 +10496,7 @@
       <c r="U166" s="34"/>
       <c r="V166" s="35"/>
       <c r="W166" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10056,7 +10519,9 @@
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="40"/>
-      <c r="J167" s="29"/>
+      <c r="J167" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K167" s="29"/>
       <c r="L167" s="29"/>
       <c r="M167" s="29"/>
@@ -10070,7 +10535,7 @@
       <c r="U167" s="34"/>
       <c r="V167" s="35"/>
       <c r="W167" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10093,7 +10558,9 @@
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="40"/>
-      <c r="J168" s="29"/>
+      <c r="J168" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K168" s="29"/>
       <c r="L168" s="29"/>
       <c r="M168" s="29"/>
@@ -10107,7 +10574,7 @@
       <c r="U168" s="34"/>
       <c r="V168" s="35"/>
       <c r="W168" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10130,7 +10597,9 @@
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="40"/>
-      <c r="J169" s="29"/>
+      <c r="J169" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K169" s="29"/>
       <c r="L169" s="29"/>
       <c r="M169" s="29"/>
@@ -10144,7 +10613,7 @@
       <c r="U169" s="34"/>
       <c r="V169" s="35"/>
       <c r="W169" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10167,7 +10636,9 @@
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
       <c r="I170" s="40"/>
-      <c r="J170" s="29"/>
+      <c r="J170" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K170" s="29"/>
       <c r="L170" s="29"/>
       <c r="M170" s="29"/>
@@ -10204,7 +10675,9 @@
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
       <c r="I171" s="40"/>
-      <c r="J171" s="29"/>
+      <c r="J171" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K171" s="29"/>
       <c r="L171" s="29"/>
       <c r="M171" s="29"/>
@@ -10241,7 +10714,9 @@
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
       <c r="I172" s="40"/>
-      <c r="J172" s="29"/>
+      <c r="J172" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K172" s="29"/>
       <c r="L172" s="29"/>
       <c r="M172" s="29"/>
@@ -10278,7 +10753,9 @@
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="40"/>
-      <c r="J173" s="29"/>
+      <c r="J173" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K173" s="29"/>
       <c r="L173" s="29"/>
       <c r="M173" s="29"/>
@@ -10315,7 +10792,9 @@
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
       <c r="I174" s="40"/>
-      <c r="J174" s="29"/>
+      <c r="J174" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K174" s="29"/>
       <c r="L174" s="29"/>
       <c r="M174" s="29"/>
@@ -10352,7 +10831,9 @@
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="40"/>
-      <c r="J175" s="29"/>
+      <c r="J175" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K175" s="29"/>
       <c r="L175" s="29"/>
       <c r="M175" s="29"/>
@@ -10389,7 +10870,9 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="40"/>
-      <c r="J176" s="29"/>
+      <c r="J176" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K176" s="29"/>
       <c r="L176" s="29"/>
       <c r="M176" s="29"/>
@@ -10426,7 +10909,9 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="40"/>
-      <c r="J177" s="29"/>
+      <c r="J177" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K177" s="29"/>
       <c r="L177" s="29"/>
       <c r="M177" s="29"/>
@@ -10463,7 +10948,9 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="40"/>
-      <c r="J178" s="29"/>
+      <c r="J178" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K178" s="29"/>
       <c r="L178" s="29"/>
       <c r="M178" s="29"/>
@@ -10500,7 +10987,9 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="40"/>
-      <c r="J179" s="29"/>
+      <c r="J179" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K179" s="29"/>
       <c r="L179" s="29"/>
       <c r="M179" s="29"/>
@@ -10537,7 +11026,9 @@
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
       <c r="I180" s="40"/>
-      <c r="J180" s="29"/>
+      <c r="J180" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K180" s="29"/>
       <c r="L180" s="29"/>
       <c r="M180" s="29"/>
@@ -10574,7 +11065,9 @@
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
       <c r="I181" s="40"/>
-      <c r="J181" s="29"/>
+      <c r="J181" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K181" s="29"/>
       <c r="L181" s="29"/>
       <c r="M181" s="29"/>
@@ -10611,7 +11104,9 @@
       <c r="G182" s="33"/>
       <c r="H182" s="33"/>
       <c r="I182" s="40"/>
-      <c r="J182" s="29"/>
+      <c r="J182" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K182" s="29"/>
       <c r="L182" s="29"/>
       <c r="M182" s="29"/>
@@ -10648,7 +11143,9 @@
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
       <c r="I183" s="40"/>
-      <c r="J183" s="29"/>
+      <c r="J183" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K183" s="29"/>
       <c r="L183" s="29"/>
       <c r="M183" s="29"/>
@@ -10732,7 +11229,9 @@
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
       <c r="I185" s="40"/>
-      <c r="J185" s="29"/>
+      <c r="J185" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K185" s="29"/>
       <c r="L185" s="29"/>
       <c r="M185" s="29"/>
@@ -10746,7 +11245,7 @@
       <c r="U185" s="34"/>
       <c r="V185" s="35"/>
       <c r="W185" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10769,7 +11268,9 @@
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
       <c r="I186" s="40"/>
-      <c r="J186" s="29"/>
+      <c r="J186" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K186" s="29"/>
       <c r="L186" s="29"/>
       <c r="M186" s="29"/>
@@ -10783,7 +11284,7 @@
       <c r="U186" s="34"/>
       <c r="V186" s="35"/>
       <c r="W186" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10806,7 +11307,9 @@
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="40"/>
-      <c r="J187" s="29"/>
+      <c r="J187" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K187" s="29"/>
       <c r="L187" s="29"/>
       <c r="M187" s="29"/>
@@ -10820,7 +11323,7 @@
       <c r="U187" s="34"/>
       <c r="V187" s="35"/>
       <c r="W187" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10843,7 +11346,9 @@
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="40"/>
-      <c r="J188" s="29"/>
+      <c r="J188" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K188" s="29"/>
       <c r="L188" s="29"/>
       <c r="M188" s="29"/>
@@ -10857,7 +11362,7 @@
       <c r="U188" s="34"/>
       <c r="V188" s="35"/>
       <c r="W188" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10880,7 +11385,9 @@
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="40"/>
-      <c r="J189" s="29"/>
+      <c r="J189" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K189" s="29"/>
       <c r="L189" s="29"/>
       <c r="M189" s="29"/>
@@ -10894,7 +11401,7 @@
       <c r="U189" s="34"/>
       <c r="V189" s="35"/>
       <c r="W189" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10917,7 +11424,9 @@
       <c r="G190" s="33"/>
       <c r="H190" s="33"/>
       <c r="I190" s="40"/>
-      <c r="J190" s="29"/>
+      <c r="J190" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K190" s="29"/>
       <c r="L190" s="29"/>
       <c r="M190" s="29"/>
@@ -10931,7 +11440,7 @@
       <c r="U190" s="34"/>
       <c r="V190" s="35"/>
       <c r="W190" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10954,7 +11463,9 @@
       <c r="G191" s="33"/>
       <c r="H191" s="33"/>
       <c r="I191" s="40"/>
-      <c r="J191" s="29"/>
+      <c r="J191" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K191" s="29"/>
       <c r="L191" s="29"/>
       <c r="M191" s="29"/>
@@ -10968,7 +11479,7 @@
       <c r="U191" s="34"/>
       <c r="V191" s="35"/>
       <c r="W191" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10991,7 +11502,9 @@
       <c r="G192" s="33"/>
       <c r="H192" s="33"/>
       <c r="I192" s="40"/>
-      <c r="J192" s="29"/>
+      <c r="J192" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K192" s="29"/>
       <c r="L192" s="29"/>
       <c r="M192" s="29"/>
@@ -11005,7 +11518,7 @@
       <c r="U192" s="34"/>
       <c r="V192" s="35"/>
       <c r="W192" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11028,7 +11541,9 @@
       <c r="G193" s="33"/>
       <c r="H193" s="33"/>
       <c r="I193" s="40"/>
-      <c r="J193" s="29"/>
+      <c r="J193" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K193" s="29"/>
       <c r="L193" s="29"/>
       <c r="M193" s="29"/>
@@ -11042,7 +11557,7 @@
       <c r="U193" s="34"/>
       <c r="V193" s="35"/>
       <c r="W193" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11065,7 +11580,9 @@
       <c r="G194" s="33"/>
       <c r="H194" s="33"/>
       <c r="I194" s="40"/>
-      <c r="J194" s="29"/>
+      <c r="J194" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K194" s="29"/>
       <c r="L194" s="29"/>
       <c r="M194" s="29"/>
@@ -11079,7 +11596,7 @@
       <c r="U194" s="34"/>
       <c r="V194" s="35"/>
       <c r="W194" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11102,7 +11619,9 @@
       <c r="G195" s="33"/>
       <c r="H195" s="33"/>
       <c r="I195" s="40"/>
-      <c r="J195" s="29"/>
+      <c r="J195" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K195" s="29"/>
       <c r="L195" s="29"/>
       <c r="M195" s="29"/>
@@ -11116,7 +11635,7 @@
       <c r="U195" s="34"/>
       <c r="V195" s="35"/>
       <c r="W195" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11139,7 +11658,9 @@
       <c r="G196" s="33"/>
       <c r="H196" s="33"/>
       <c r="I196" s="40"/>
-      <c r="J196" s="29"/>
+      <c r="J196" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K196" s="29"/>
       <c r="L196" s="29"/>
       <c r="M196" s="29"/>
@@ -11153,7 +11674,7 @@
       <c r="U196" s="34"/>
       <c r="V196" s="35"/>
       <c r="W196" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11176,7 +11697,9 @@
       <c r="G197" s="33"/>
       <c r="H197" s="33"/>
       <c r="I197" s="40"/>
-      <c r="J197" s="29"/>
+      <c r="J197" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K197" s="29"/>
       <c r="L197" s="29"/>
       <c r="M197" s="29"/>
@@ -11190,7 +11713,7 @@
       <c r="U197" s="34"/>
       <c r="V197" s="35"/>
       <c r="W197" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11213,7 +11736,9 @@
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
       <c r="I198" s="40"/>
-      <c r="J198" s="29"/>
+      <c r="J198" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K198" s="29"/>
       <c r="L198" s="29"/>
       <c r="M198" s="29"/>
@@ -11227,7 +11752,7 @@
       <c r="U198" s="34"/>
       <c r="V198" s="35"/>
       <c r="W198" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11250,7 +11775,9 @@
       <c r="G199" s="33"/>
       <c r="H199" s="33"/>
       <c r="I199" s="40"/>
-      <c r="J199" s="29"/>
+      <c r="J199" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K199" s="29"/>
       <c r="L199" s="29"/>
       <c r="M199" s="29"/>
@@ -11264,7 +11791,7 @@
       <c r="U199" s="34"/>
       <c r="V199" s="35"/>
       <c r="W199" s="29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11287,7 +11814,9 @@
       <c r="G200" s="33"/>
       <c r="H200" s="33"/>
       <c r="I200" s="40"/>
-      <c r="J200" s="29"/>
+      <c r="J200" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="K200" s="29"/>
       <c r="L200" s="29"/>
       <c r="M200" s="29"/>
@@ -15642,7 +16171,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J14 M14:N14 P14:R14 J16:J20 M16:N20 P16:R20 J22 M22:N22 P22:R22 J24:J28 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 J185:J198 M185:N198 M30:N183 J30:J183 P30:R183 P185:R198</xm:sqref>
+          <xm:sqref>M30:N183 M14:N14 P14:R14 P185:R198 M16:N20 P16:R20 P30:R183 M22:N22 P22:R22 M24:N28 P24:R28 P10:R12 M10:N12 M185:N198 J10:J183 J185:J200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -15654,7 +16183,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K183 K185:K198</xm:sqref>
+          <xm:sqref>K185:K198 K10:K183</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15726,7 +16255,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18129,17 +18658,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18147,6 +18674,6 @@
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
-  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" contentBits="2" removed="0"/>
+  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/FPF/5.70/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/FPF/5.70/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/daniele_romanazzi_cgm_com/Documents/Documenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/da caricare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07F68B6-C5A3-4597-8A7B-5DFE7846B1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{1F24850C-8DFB-4B05-9D3A-C0BE7F771772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812AD218-F0B5-4145-B260-3373C5B9D133}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="482">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1845,6 +1845,15 @@
   </si>
   <si>
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
+  </si>
+  <si>
+    <t>2025-02-20T05:11:45Z</t>
+  </si>
+  <si>
+    <t>50ec7ce1e84f761c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.c9e46412a5b4a1da85f5c1d1851717bc580c50202e314f7832592e3d7865819c.299c4b7737^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2627,6 +2636,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4002,10 +4015,10 @@
   <dimension ref="A1:W775"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A185" sqref="A185"/>
+      <selection pane="bottomRight" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5073,9 +5086,15 @@
       <c r="O29" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
+      <c r="P29" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="S29" s="29" t="s">
         <v>461</v>
       </c>
@@ -11225,12 +11244,20 @@
       <c r="E185" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="40"/>
+      <c r="F185" s="33">
+        <v>45708</v>
+      </c>
+      <c r="G185" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="H185" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="I185" s="40" t="s">
+        <v>481</v>
+      </c>
       <c r="J185" s="29" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="K185" s="29"/>
       <c r="L185" s="29"/>
@@ -11245,7 +11272,7 @@
       <c r="U185" s="34"/>
       <c r="V185" s="35"/>
       <c r="W185" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18439,6 +18466,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -18610,26 +18656,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18647,33 +18700,9 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
-  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" removed="0"/>
+  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" contentBits="2" removed="0"/>
 </clbl:labelList>
 </file>